--- a/Resources/CAL_FireStats/2009-wildfire-activity-stats.xlsx
+++ b/Resources/CAL_FireStats/2009-wildfire-activity-stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16c6a743d20dd4b9/Documents/^M PERSONLIG/^M MAAL/DABC/Working/Projects/Project3/Fire-Analysis/Resources/CAL_FireStats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A702517A-FE4A-4AE8-A693-819A916ABE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="14_{A702517A-FE4A-4AE8-A693-819A916ABE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D037F32-7E17-4504-B3FA-D48663C2BD8A}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1440" windowWidth="27255" windowHeight="14760" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="1440" windowWidth="27255" windowHeight="14760" firstSheet="24" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_page_7" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5669" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5686" uniqueCount="1982">
   <si>
     <t>STATE RESPONSIBILITY AREA, ACRES PROTECTED BY AGENCY – 2009**</t>
   </si>
@@ -6280,13 +6280,6 @@
     <t>$49,500</t>
   </si>
   <si>
-    <t>$41,700
-$404,529
-$155,100
-$629,200
-$270,300</t>
-  </si>
-  <si>
     <t>$0
 $0
 $1,100
@@ -7522,6 +7515,9 @@
   </si>
   <si>
     <t>W. Stanislaus</t>
+  </si>
+  <si>
+    <t>E. Trinity</t>
   </si>
 </sst>
 </file>
@@ -7604,10 +7600,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9344,7 +9336,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B3" t="s">
         <v>787</v>
@@ -9432,7 +9424,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B5" t="s">
         <v>354</v>
@@ -9971,7 +9963,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -10427,7 +10419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -10539,7 +10531,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -10547,7 +10539,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B6">
         <v>28</v>
@@ -11350,7 +11342,7 @@
         <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C11" t="s">
         <v>983</v>
@@ -11847,7 +11839,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -11855,7 +11847,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -12219,7 +12211,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -18063,9 +18055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18564,10 +18554,800 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>279550</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3">
+        <v>23351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>821</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1584</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1585</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1597</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1598</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1606</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3">
+        <v>233400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1613</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3226338</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1617</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1621</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>860</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1628</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1629</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1634</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1634</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="3">
+        <v>49150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1639</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1641</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1642</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3">
+        <v>25031902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>873</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="3">
+        <v>49710</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1656</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="3">
+        <v>165862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>887</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18619,338 +19399,202 @@
         <v>800</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>41700</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1672</v>
+      </c>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1574</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1575</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1576</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1577</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>404529</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>821</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1580</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1581</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1582</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1583</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1584</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1585</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1586</v>
+        <v>187</v>
+      </c>
+      <c r="B5" s="3">
+        <v>155100</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>827</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1589</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1592</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1593</v>
+        <v>1979</v>
+      </c>
+      <c r="B6" s="3">
+        <v>629200</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1595</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1598</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1599</v>
+        <v>1980</v>
+      </c>
+      <c r="B7" s="3">
+        <v>270300</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>839</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>1600</v>
+        <v>1673</v>
       </c>
       <c r="C8" t="s">
-        <v>1601</v>
+        <v>1674</v>
       </c>
       <c r="D8" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="E8" t="s">
-        <v>1602</v>
+        <v>1675</v>
       </c>
       <c r="F8" t="s">
-        <v>1603</v>
+        <v>1676</v>
       </c>
       <c r="G8" t="s">
-        <v>1604</v>
+        <v>1649</v>
       </c>
       <c r="H8" t="s">
-        <v>1605</v>
+        <v>1677</v>
       </c>
       <c r="I8" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="J8" t="s">
-        <v>1570</v>
+        <v>1678</v>
       </c>
       <c r="K8" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="L8" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="M8" t="s">
-        <v>1606</v>
+        <v>1679</v>
       </c>
       <c r="N8" t="s">
-        <v>1570</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>848</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1607</v>
+        <v>1981</v>
+      </c>
+      <c r="B9" s="3">
+        <v>124300</v>
       </c>
       <c r="C9" t="s">
-        <v>1608</v>
+        <v>1682</v>
       </c>
       <c r="D9" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="E9" t="s">
-        <v>1609</v>
+        <v>1683</v>
       </c>
       <c r="F9" t="s">
-        <v>1610</v>
+        <v>1656</v>
       </c>
       <c r="G9" t="s">
-        <v>1611</v>
+        <v>1653</v>
       </c>
       <c r="H9" t="s">
-        <v>1612</v>
+        <v>1684</v>
       </c>
       <c r="I9" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="J9" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="K9" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="L9" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="M9" t="s">
-        <v>1613</v>
+        <v>1685</v>
       </c>
       <c r="N9" t="s">
-        <v>1579</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>853</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1617</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1618</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1619</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1588</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1588</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1620</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1621</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1588</v>
+        <v>193</v>
+      </c>
+      <c r="B10" s="3">
+        <v>23552</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>860</v>
+        <v>914</v>
       </c>
       <c r="B11" t="s">
-        <v>1622</v>
+        <v>1687</v>
       </c>
       <c r="C11" t="s">
-        <v>1623</v>
+        <v>1599</v>
       </c>
       <c r="D11" t="s">
         <v>1579</v>
       </c>
       <c r="E11" t="s">
-        <v>1624</v>
+        <v>1688</v>
       </c>
       <c r="F11" t="s">
-        <v>1625</v>
+        <v>1649</v>
       </c>
       <c r="G11" t="s">
-        <v>1626</v>
+        <v>1579</v>
       </c>
       <c r="H11" t="s">
-        <v>1627</v>
+        <v>1689</v>
       </c>
       <c r="I11" t="s">
         <v>1579</v>
@@ -18962,21 +19606,21 @@
         <v>1579</v>
       </c>
       <c r="L11" t="s">
-        <v>1628</v>
+        <v>1579</v>
       </c>
       <c r="M11" t="s">
-        <v>1629</v>
+        <v>1690</v>
       </c>
       <c r="N11" t="s">
-        <v>1579</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
-        <v>1630</v>
+        <v>1692</v>
       </c>
       <c r="C12" t="s">
         <v>1579</v>
@@ -18985,16 +19629,16 @@
         <v>1579</v>
       </c>
       <c r="E12" t="s">
-        <v>1631</v>
+        <v>1649</v>
       </c>
       <c r="F12" t="s">
-        <v>1632</v>
+        <v>1693</v>
       </c>
       <c r="G12" t="s">
-        <v>1579</v>
+        <v>1596</v>
       </c>
       <c r="H12" t="s">
-        <v>1633</v>
+        <v>1694</v>
       </c>
       <c r="I12" t="s">
         <v>1579</v>
@@ -19009,18 +19653,18 @@
         <v>1579</v>
       </c>
       <c r="M12" t="s">
-        <v>1634</v>
+        <v>1583</v>
       </c>
       <c r="N12" t="s">
-        <v>1635</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>1630</v>
+        <v>1692</v>
       </c>
       <c r="C13" t="s">
         <v>1579</v>
@@ -19029,16 +19673,16 @@
         <v>1579</v>
       </c>
       <c r="E13" t="s">
-        <v>1631</v>
+        <v>1649</v>
       </c>
       <c r="F13" t="s">
-        <v>1632</v>
+        <v>1693</v>
       </c>
       <c r="G13" t="s">
-        <v>1579</v>
+        <v>1596</v>
       </c>
       <c r="H13" t="s">
-        <v>1633</v>
+        <v>1694</v>
       </c>
       <c r="I13" t="s">
         <v>1579</v>
@@ -19053,191 +19697,283 @@
         <v>1579</v>
       </c>
       <c r="M13" t="s">
-        <v>1634</v>
+        <v>1583</v>
       </c>
       <c r="N13" t="s">
-        <v>1635</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>864</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1636</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1500</v>
       </c>
       <c r="C14" t="s">
-        <v>1637</v>
+        <v>1696</v>
       </c>
       <c r="D14" t="s">
-        <v>1588</v>
+        <v>1697</v>
       </c>
       <c r="E14" t="s">
-        <v>1638</v>
+        <v>1698</v>
       </c>
       <c r="F14" t="s">
-        <v>1639</v>
+        <v>1699</v>
       </c>
       <c r="G14" t="s">
-        <v>1588</v>
+        <v>1697</v>
       </c>
       <c r="H14" t="s">
-        <v>1640</v>
+        <v>1700</v>
       </c>
       <c r="I14" t="s">
-        <v>1588</v>
+        <v>1697</v>
       </c>
       <c r="J14" t="s">
-        <v>1588</v>
+        <v>1697</v>
       </c>
       <c r="K14" t="s">
-        <v>1588</v>
+        <v>1697</v>
       </c>
       <c r="L14" t="s">
-        <v>1641</v>
+        <v>1697</v>
       </c>
       <c r="M14" t="s">
-        <v>1642</v>
+        <v>1701</v>
       </c>
       <c r="N14" t="s">
-        <v>1643</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>873</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1649</v>
-      </c>
-      <c r="M15" t="s">
-        <v>1650</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1651</v>
+        <v>75</v>
+      </c>
+      <c r="B15" s="3">
+        <v>163650</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>877</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1654</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1655</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1656</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1653</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1657</v>
-      </c>
-      <c r="N16" t="s">
-        <v>1658</v>
+        <v>126</v>
+      </c>
+      <c r="B16" s="3">
+        <v>56621</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>887</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1649</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1662</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1663</v>
+        <v>207</v>
+      </c>
+      <c r="B17" s="3">
+        <v>100465</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>890</v>
+        <v>209</v>
+      </c>
+      <c r="B18" s="3">
+        <v>89422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="3">
+        <v>302001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>939</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1707</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1653</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>949</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>950</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1720</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1721</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1723</v>
       </c>
     </row>
   </sheetData>
@@ -19245,12 +19981,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:N14"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19299,165 +20035,82 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1670</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1673</v>
+        <v>958</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1674</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="3">
+        <v>89953</v>
       </c>
       <c r="C4" t="s">
-        <v>1675</v>
+        <v>1653</v>
       </c>
       <c r="D4" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="E4" t="s">
-        <v>1676</v>
+        <v>1653</v>
       </c>
       <c r="F4" t="s">
-        <v>1677</v>
+        <v>1725</v>
       </c>
       <c r="G4" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="H4" t="s">
-        <v>1678</v>
+        <v>1726</v>
       </c>
       <c r="I4" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="J4" t="s">
-        <v>1679</v>
+        <v>1653</v>
       </c>
       <c r="K4" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="L4" t="s">
-        <v>1579</v>
+        <v>1727</v>
       </c>
       <c r="M4" t="s">
-        <v>1680</v>
+        <v>1728</v>
       </c>
       <c r="N4" t="s">
-        <v>1681</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>905</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1656</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1685</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1653</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1653</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1653</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1686</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1687</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>914</v>
+        <v>967</v>
       </c>
       <c r="B6" t="s">
-        <v>1688</v>
+        <v>1729</v>
       </c>
       <c r="C6" t="s">
-        <v>1599</v>
+        <v>1579</v>
       </c>
       <c r="D6" t="s">
         <v>1579</v>
       </c>
       <c r="E6" t="s">
-        <v>1689</v>
+        <v>1579</v>
       </c>
       <c r="F6" t="s">
-        <v>1649</v>
+        <v>1730</v>
       </c>
       <c r="G6" t="s">
         <v>1579</v>
       </c>
       <c r="H6" t="s">
-        <v>1690</v>
+        <v>1731</v>
       </c>
       <c r="I6" t="s">
         <v>1579</v>
@@ -19469,171 +20122,99 @@
         <v>1579</v>
       </c>
       <c r="L6" t="s">
-        <v>1579</v>
+        <v>1732</v>
       </c>
       <c r="M6" t="s">
-        <v>1691</v>
+        <v>1733</v>
       </c>
       <c r="N6" t="s">
-        <v>1692</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1693</v>
+        <v>89</v>
+      </c>
+      <c r="B7" s="3">
+        <v>88150</v>
       </c>
       <c r="C7" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="D7" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="E7" t="s">
-        <v>1649</v>
+        <v>1588</v>
       </c>
       <c r="F7" t="s">
-        <v>1694</v>
+        <v>1735</v>
       </c>
       <c r="G7" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="H7" t="s">
-        <v>1695</v>
+        <v>1736</v>
       </c>
       <c r="I7" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="J7" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="K7" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="L7" t="s">
-        <v>1579</v>
+        <v>1737</v>
       </c>
       <c r="M7" t="s">
-        <v>1583</v>
+        <v>1738</v>
       </c>
       <c r="N7" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1695</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1583</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1579</v>
+        <v>98</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2902</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>926</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1700</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1701</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1698</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1702</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1698</v>
+        <v>107</v>
+      </c>
+      <c r="B9" s="3">
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>939</v>
+        <v>978</v>
       </c>
       <c r="B10" t="s">
-        <v>1703</v>
+        <v>1739</v>
       </c>
       <c r="C10" t="s">
-        <v>1704</v>
+        <v>1579</v>
       </c>
       <c r="D10" t="s">
         <v>1579</v>
       </c>
       <c r="E10" t="s">
-        <v>1705</v>
+        <v>1579</v>
       </c>
       <c r="F10" t="s">
-        <v>1706</v>
+        <v>1740</v>
       </c>
       <c r="G10" t="s">
         <v>1579</v>
       </c>
       <c r="H10" t="s">
-        <v>1707</v>
+        <v>1741</v>
       </c>
       <c r="I10" t="s">
         <v>1579</v>
@@ -19645,10 +20226,10 @@
         <v>1579</v>
       </c>
       <c r="L10" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="M10" t="s">
-        <v>1708</v>
+        <v>1742</v>
       </c>
       <c r="N10" t="s">
         <v>1579</v>
@@ -19656,54 +20237,54 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>943</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>1709</v>
+        <v>1743</v>
       </c>
       <c r="C11" t="s">
-        <v>1653</v>
+        <v>1579</v>
       </c>
       <c r="D11" t="s">
-        <v>1653</v>
+        <v>1579</v>
       </c>
       <c r="E11" t="s">
-        <v>1653</v>
+        <v>1744</v>
       </c>
       <c r="F11" t="s">
-        <v>1710</v>
+        <v>1745</v>
       </c>
       <c r="G11" t="s">
-        <v>1653</v>
+        <v>1579</v>
       </c>
       <c r="H11" t="s">
-        <v>1711</v>
+        <v>1746</v>
       </c>
       <c r="I11" t="s">
-        <v>1653</v>
+        <v>1579</v>
       </c>
       <c r="J11" t="s">
-        <v>1653</v>
+        <v>1579</v>
       </c>
       <c r="K11" t="s">
-        <v>1653</v>
+        <v>1579</v>
       </c>
       <c r="L11" t="s">
-        <v>1653</v>
+        <v>1579</v>
       </c>
       <c r="M11" t="s">
-        <v>1653</v>
+        <v>1747</v>
       </c>
       <c r="N11" t="s">
-        <v>1653</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>949</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>1712</v>
+        <v>1743</v>
       </c>
       <c r="C12" t="s">
         <v>1579</v>
@@ -19712,16 +20293,16 @@
         <v>1579</v>
       </c>
       <c r="E12" t="s">
-        <v>1579</v>
+        <v>1744</v>
       </c>
       <c r="F12" t="s">
-        <v>1713</v>
+        <v>1745</v>
       </c>
       <c r="G12" t="s">
         <v>1579</v>
       </c>
       <c r="H12" t="s">
-        <v>1714</v>
+        <v>1746</v>
       </c>
       <c r="I12" t="s">
         <v>1579</v>
@@ -19736,631 +20317,88 @@
         <v>1579</v>
       </c>
       <c r="M12" t="s">
-        <v>1579</v>
+        <v>1747</v>
       </c>
       <c r="N12" t="s">
-        <v>1579</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>950</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1715</v>
+        <v>120</v>
+      </c>
+      <c r="B13" s="3">
+        <v>52037</v>
       </c>
       <c r="C13" t="s">
-        <v>1716</v>
+        <v>1653</v>
       </c>
       <c r="D13" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="E13" t="s">
-        <v>1717</v>
+        <v>1749</v>
       </c>
       <c r="F13" t="s">
-        <v>1718</v>
+        <v>1750</v>
       </c>
       <c r="G13" t="s">
-        <v>1719</v>
+        <v>1653</v>
       </c>
       <c r="H13" t="s">
-        <v>1720</v>
+        <v>1751</v>
       </c>
       <c r="I13" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="J13" t="s">
-        <v>1625</v>
+        <v>1653</v>
       </c>
       <c r="K13" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="L13" t="s">
-        <v>1721</v>
+        <v>1653</v>
       </c>
       <c r="M13" t="s">
-        <v>1722</v>
+        <v>1653</v>
       </c>
       <c r="N13" t="s">
-        <v>1723</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:N24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>959</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1726</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1727</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1728</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>967</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1732</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1733</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1734</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>968</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1737</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1588</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1738</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1739</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>978</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1741</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1742</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1743</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1747</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1748</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1746</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1747</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1748</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>981</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1750</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1752</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1653</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1653</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1653</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1653</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>991</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1705</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1755</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1756</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M11" t="s">
-        <v>1579</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>993</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1653</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1759</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1760</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1761</v>
-      </c>
-      <c r="M14" t="s">
-        <v>1762</v>
-      </c>
-      <c r="N14" t="s">
-        <v>1625</v>
+        <v>154</v>
+      </c>
+      <c r="B14" s="3">
+        <v>22240</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>991</v>
       </c>
       <c r="B15" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
       <c r="C15" t="s">
-        <v>1625</v>
+        <v>1579</v>
       </c>
       <c r="D15" t="s">
         <v>1579</v>
       </c>
       <c r="E15" t="s">
-        <v>1579</v>
+        <v>1704</v>
       </c>
       <c r="F15" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="G15" t="s">
         <v>1579</v>
       </c>
       <c r="H15" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="I15" t="s">
         <v>1579</v>
@@ -20372,112 +20410,76 @@
         <v>1579</v>
       </c>
       <c r="L15" t="s">
-        <v>1761</v>
+        <v>1579</v>
       </c>
       <c r="M15" t="s">
-        <v>1762</v>
+        <v>1579</v>
       </c>
       <c r="N15" t="s">
-        <v>1625</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1763</v>
+        <v>60</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="D16" t="s">
-        <v>1625</v>
+        <v>1653</v>
       </c>
       <c r="E16" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="F16" t="s">
-        <v>1764</v>
+        <v>1653</v>
       </c>
       <c r="G16" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="H16" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="I16" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="J16" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="K16" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="L16" t="s">
-        <v>1579</v>
+        <v>1653</v>
       </c>
       <c r="M16" t="s">
-        <v>1608</v>
+        <v>1653</v>
       </c>
       <c r="N16" t="s">
-        <v>1766</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1765</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L17" t="s">
-        <v>1579</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1608</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1766</v>
+        <v>158</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11000</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>1767</v>
+        <v>1609</v>
       </c>
       <c r="C18" t="s">
-        <v>1768</v>
+        <v>1579</v>
       </c>
       <c r="D18" t="s">
         <v>1579</v>
@@ -20486,13 +20488,13 @@
         <v>1579</v>
       </c>
       <c r="F18" t="s">
-        <v>1769</v>
+        <v>1579</v>
       </c>
       <c r="G18" t="s">
         <v>1579</v>
       </c>
       <c r="H18" t="s">
-        <v>1770</v>
+        <v>1609</v>
       </c>
       <c r="I18" t="s">
         <v>1579</v>
@@ -20507,7 +20509,7 @@
         <v>1579</v>
       </c>
       <c r="M18" t="s">
-        <v>1771</v>
+        <v>1579</v>
       </c>
       <c r="N18" t="s">
         <v>1579</v>
@@ -20515,13 +20517,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="C19" t="s">
-        <v>1768</v>
+        <v>1625</v>
       </c>
       <c r="D19" t="s">
         <v>1579</v>
@@ -20530,13 +20532,13 @@
         <v>1579</v>
       </c>
       <c r="F19" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="G19" t="s">
         <v>1579</v>
       </c>
       <c r="H19" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="I19" t="s">
         <v>1579</v>
@@ -20548,83 +20550,83 @@
         <v>1579</v>
       </c>
       <c r="L19" t="s">
-        <v>1579</v>
+        <v>1760</v>
       </c>
       <c r="M19" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="N19" t="s">
-        <v>1579</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1005</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="C20" t="s">
-        <v>1773</v>
+        <v>1625</v>
       </c>
       <c r="D20" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="E20" t="s">
-        <v>1774</v>
+        <v>1579</v>
       </c>
       <c r="F20" t="s">
-        <v>1775</v>
+        <v>1758</v>
       </c>
       <c r="G20" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="H20" t="s">
-        <v>1776</v>
+        <v>1759</v>
       </c>
       <c r="I20" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="J20" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="K20" t="s">
-        <v>1570</v>
+        <v>1579</v>
       </c>
       <c r="L20" t="s">
-        <v>1570</v>
+        <v>1760</v>
       </c>
       <c r="M20" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
       <c r="N20" t="s">
-        <v>1778</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1016</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>1779</v>
+        <v>1762</v>
       </c>
       <c r="C21" t="s">
-        <v>1780</v>
+        <v>1579</v>
       </c>
       <c r="D21" t="s">
-        <v>1579</v>
+        <v>1625</v>
       </c>
       <c r="E21" t="s">
-        <v>1781</v>
+        <v>1579</v>
       </c>
       <c r="F21" t="s">
-        <v>1782</v>
+        <v>1763</v>
       </c>
       <c r="G21" t="s">
         <v>1579</v>
       </c>
       <c r="H21" t="s">
-        <v>1783</v>
+        <v>1764</v>
       </c>
       <c r="I21" t="s">
         <v>1579</v>
@@ -20639,36 +20641,36 @@
         <v>1579</v>
       </c>
       <c r="M21" t="s">
-        <v>1784</v>
+        <v>1608</v>
       </c>
       <c r="N21" t="s">
-        <v>1785</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1018</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
-        <v>1786</v>
+        <v>1762</v>
       </c>
       <c r="C22" t="s">
-        <v>1787</v>
+        <v>1579</v>
       </c>
       <c r="D22" t="s">
         <v>1625</v>
       </c>
       <c r="E22" t="s">
-        <v>1788</v>
+        <v>1579</v>
       </c>
       <c r="F22" t="s">
-        <v>1789</v>
+        <v>1763</v>
       </c>
       <c r="G22" t="s">
         <v>1579</v>
       </c>
       <c r="H22" t="s">
-        <v>1790</v>
+        <v>1764</v>
       </c>
       <c r="I22" t="s">
         <v>1579</v>
@@ -20680,62 +20682,306 @@
         <v>1579</v>
       </c>
       <c r="L22" t="s">
-        <v>1791</v>
+        <v>1579</v>
       </c>
       <c r="M22" t="s">
-        <v>1792</v>
+        <v>1608</v>
       </c>
       <c r="N22" t="s">
-        <v>1793</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1024</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>1794</v>
+        <v>1766</v>
       </c>
       <c r="C23" t="s">
-        <v>1795</v>
+        <v>1767</v>
       </c>
       <c r="D23" t="s">
-        <v>1625</v>
+        <v>1579</v>
       </c>
       <c r="E23" t="s">
-        <v>1796</v>
+        <v>1579</v>
       </c>
       <c r="F23" t="s">
-        <v>1797</v>
+        <v>1768</v>
       </c>
       <c r="G23" t="s">
-        <v>1719</v>
+        <v>1579</v>
       </c>
       <c r="H23" t="s">
-        <v>1798</v>
+        <v>1769</v>
       </c>
       <c r="I23" t="s">
         <v>1579</v>
       </c>
       <c r="J23" t="s">
-        <v>1625</v>
+        <v>1579</v>
       </c>
       <c r="K23" t="s">
         <v>1579</v>
       </c>
       <c r="L23" t="s">
-        <v>1799</v>
+        <v>1579</v>
       </c>
       <c r="M23" t="s">
-        <v>1800</v>
+        <v>1770</v>
       </c>
       <c r="N23" t="s">
-        <v>1801</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1802</v>
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1770</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>162977</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1776</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B27" s="3">
+        <v>50111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1783</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1790</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1791</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1798</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1801</v>
       </c>
     </row>
   </sheetData>
@@ -20748,7 +20994,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20790,13 +21036,13 @@
         <v>1569</v>
       </c>
       <c r="C3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D3" t="s">
         <v>1803</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1804</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1805</v>
       </c>
       <c r="F3" t="s">
         <v>1570</v>
@@ -20819,13 +21065,13 @@
         <v>1578</v>
       </c>
       <c r="C4" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D4" t="s">
         <v>1806</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1807</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1808</v>
       </c>
       <c r="F4" t="s">
         <v>1579</v>
@@ -20848,10 +21094,10 @@
         <v>1587</v>
       </c>
       <c r="C5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D5" t="s">
         <v>1809</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1810</v>
       </c>
       <c r="E5" t="s">
         <v>1588</v>
@@ -20877,10 +21123,10 @@
         <v>1594</v>
       </c>
       <c r="C6" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D6" t="s">
         <v>1811</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1812</v>
       </c>
       <c r="E6" t="s">
         <v>1579</v>
@@ -20906,16 +21152,16 @@
         <v>1600</v>
       </c>
       <c r="C7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D7" t="s">
         <v>1813</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1814</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1815</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1816</v>
       </c>
       <c r="G7" t="s">
         <v>1570</v>
@@ -20935,16 +21181,16 @@
         <v>1607</v>
       </c>
       <c r="C8" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D8" t="s">
         <v>1817</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1818</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>1819</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1820</v>
       </c>
       <c r="G8" t="s">
         <v>1579</v>
@@ -20964,19 +21210,19 @@
         <v>1614</v>
       </c>
       <c r="C9" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D9" t="s">
         <v>1821</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1822</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1823</v>
       </c>
       <c r="F9" t="s">
         <v>1588</v>
       </c>
       <c r="G9" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H9" t="s">
         <v>1588</v>
@@ -20993,19 +21239,19 @@
         <v>1622</v>
       </c>
       <c r="C10" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D10" t="s">
         <v>1825</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>1826</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G10" t="s">
         <v>1827</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1828</v>
       </c>
       <c r="H10" t="s">
         <v>1579</v>
@@ -21025,10 +21271,10 @@
         <v>1631</v>
       </c>
       <c r="D11" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E11" t="s">
         <v>1829</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1830</v>
       </c>
       <c r="F11" t="s">
         <v>1579</v>
@@ -21054,10 +21300,10 @@
         <v>1631</v>
       </c>
       <c r="D12" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E12" t="s">
         <v>1829</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1830</v>
       </c>
       <c r="F12" t="s">
         <v>1579</v>
@@ -21080,10 +21326,10 @@
         <v>1636</v>
       </c>
       <c r="C13" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D13" t="s">
         <v>1831</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1832</v>
       </c>
       <c r="E13" t="s">
         <v>1588</v>
@@ -21092,7 +21338,7 @@
         <v>1588</v>
       </c>
       <c r="G13" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H13" t="s">
         <v>1588</v>
@@ -21109,19 +21355,19 @@
         <v>1644</v>
       </c>
       <c r="C14" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D14" t="s">
         <v>1834</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G14" t="s">
         <v>1835</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1836</v>
       </c>
       <c r="H14" t="s">
         <v>1579</v>
@@ -21138,10 +21384,10 @@
         <v>1652</v>
       </c>
       <c r="C15" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D15" t="s">
         <v>1837</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1838</v>
       </c>
       <c r="E15" t="s">
         <v>1653</v>
@@ -21167,10 +21413,10 @@
         <v>1659</v>
       </c>
       <c r="C16" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D16" t="s">
         <v>1839</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1840</v>
       </c>
       <c r="E16" t="s">
         <v>1579</v>
@@ -22454,7 +22700,7 @@
         <v>1034</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1336</v>
@@ -22462,28 +22708,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C2" t="s">
         <v>1842</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1843</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1844</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1845</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1846</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1847</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1848</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -22491,28 +22737,28 @@
         <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D3" t="s">
         <v>1850</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1851</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1852</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1853</v>
       </c>
       <c r="G3" t="s">
         <v>1631</v>
       </c>
       <c r="H3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I3" t="s">
         <v>1854</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -22520,13 +22766,13 @@
         <v>905</v>
       </c>
       <c r="B4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D4" t="s">
         <v>1856</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1857</v>
       </c>
       <c r="E4" t="s">
         <v>1653</v>
@@ -22538,7 +22784,7 @@
         <v>1653</v>
       </c>
       <c r="H4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="I4" t="s">
         <v>1653</v>
@@ -22549,13 +22795,13 @@
         <v>914</v>
       </c>
       <c r="B5" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D5" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E5" t="s">
         <v>1579</v>
@@ -22578,16 +22824,16 @@
         <v>917</v>
       </c>
       <c r="B6" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C6" t="s">
         <v>1859</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1860</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1861</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1862</v>
       </c>
       <c r="F6" t="s">
         <v>1656</v>
@@ -22607,16 +22853,16 @@
         <v>202</v>
       </c>
       <c r="B7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E7" t="s">
         <v>1693</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1694</v>
       </c>
       <c r="F7" t="s">
         <v>1649</v>
@@ -22636,28 +22882,28 @@
         <v>926</v>
       </c>
       <c r="B8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C8" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D8" t="s">
         <v>1865</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1866</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>1867</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1868</v>
       </c>
-      <c r="G8" t="s">
-        <v>1869</v>
-      </c>
       <c r="H8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="I8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -22665,22 +22911,22 @@
         <v>939</v>
       </c>
       <c r="B9" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C9" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D9" t="s">
         <v>1870</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>1871</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G9" t="s">
         <v>1872</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1766</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1873</v>
       </c>
       <c r="H9" t="s">
         <v>1579</v>
@@ -22694,16 +22940,16 @@
         <v>943</v>
       </c>
       <c r="B10" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C10" t="s">
         <v>1653</v>
       </c>
       <c r="D10" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E10" t="s">
         <v>1874</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1875</v>
       </c>
       <c r="F10" t="s">
         <v>1653</v>
@@ -22723,16 +22969,16 @@
         <v>949</v>
       </c>
       <c r="B11" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C11" t="s">
         <v>1579</v>
       </c>
       <c r="D11" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E11" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="F11" t="s">
         <v>1579</v>
@@ -22752,28 +22998,28 @@
         <v>950</v>
       </c>
       <c r="B12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C12" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D12" t="s">
         <v>1877</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1878</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>1879</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1880</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>1881</v>
       </c>
-      <c r="H12" t="s">
-        <v>1882</v>
-      </c>
       <c r="I12" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -22830,16 +23076,16 @@
         <v>959</v>
       </c>
       <c r="B3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C3" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D3" t="s">
         <v>1883</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1884</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1885</v>
       </c>
       <c r="F3" t="s">
         <v>1653</v>
@@ -22859,16 +23105,16 @@
         <v>967</v>
       </c>
       <c r="B4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C4" t="s">
         <v>1584</v>
       </c>
       <c r="D4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E4" t="s">
         <v>1886</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1887</v>
       </c>
       <c r="F4" t="s">
         <v>1579</v>
@@ -22888,22 +23134,22 @@
         <v>968</v>
       </c>
       <c r="B5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D5" t="s">
         <v>1888</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F5" t="s">
         <v>1889</v>
       </c>
-      <c r="E5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>1890</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1891</v>
       </c>
       <c r="H5" t="s">
         <v>1588</v>
@@ -22917,22 +23163,22 @@
         <v>978</v>
       </c>
       <c r="B6" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C6" t="s">
         <v>1584</v>
       </c>
       <c r="D6" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E6" t="s">
         <v>1583</v>
       </c>
       <c r="F6" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G6" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H6" t="s">
         <v>1579</v>
@@ -22946,22 +23192,22 @@
         <v>146</v>
       </c>
       <c r="B7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E7" t="s">
         <v>1744</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1895</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1745</v>
       </c>
       <c r="F7" t="s">
         <v>1583</v>
       </c>
       <c r="G7" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H7" t="s">
         <v>1579</v>
@@ -22975,22 +23221,22 @@
         <v>146</v>
       </c>
       <c r="B8" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E8" t="s">
         <v>1744</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1895</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1745</v>
       </c>
       <c r="F8" t="s">
         <v>1583</v>
       </c>
       <c r="G8" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H8" t="s">
         <v>1579</v>
@@ -23004,16 +23250,16 @@
         <v>981</v>
       </c>
       <c r="B9" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C9" t="s">
         <v>1653</v>
       </c>
       <c r="D9" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E9" t="s">
         <v>1897</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1898</v>
       </c>
       <c r="F9" t="s">
         <v>1653</v>
@@ -23022,10 +23268,10 @@
         <v>1653</v>
       </c>
       <c r="H9" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I9" t="s">
         <v>1899</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -23033,28 +23279,28 @@
         <v>991</v>
       </c>
       <c r="B10" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C10" t="s">
         <v>1579</v>
       </c>
       <c r="D10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E10" t="s">
         <v>1901</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H10" t="s">
         <v>1902</v>
       </c>
-      <c r="F10" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>1903</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -23062,10 +23308,10 @@
         <v>993</v>
       </c>
       <c r="B11" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C11" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D11" t="s">
         <v>1653</v>
@@ -23120,19 +23366,19 @@
         <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C13" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D13" t="s">
         <v>1905</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F13" t="s">
         <v>1906</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1907</v>
       </c>
       <c r="G13" t="s">
         <v>1579</v>
@@ -23149,19 +23395,19 @@
         <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C14" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D14" t="s">
         <v>1905</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F14" t="s">
         <v>1906</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1907</v>
       </c>
       <c r="G14" t="s">
         <v>1579</v>
@@ -23178,19 +23424,19 @@
         <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C15" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D15" t="s">
         <v>1908</v>
       </c>
-      <c r="D15" t="s">
-        <v>1909</v>
-      </c>
       <c r="E15" t="s">
         <v>1579</v>
       </c>
       <c r="F15" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G15" t="s">
         <v>1579</v>
@@ -23207,19 +23453,19 @@
         <v>173</v>
       </c>
       <c r="B16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C16" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D16" t="s">
         <v>1908</v>
       </c>
-      <c r="D16" t="s">
-        <v>1909</v>
-      </c>
       <c r="E16" t="s">
         <v>1579</v>
       </c>
       <c r="F16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G16" t="s">
         <v>1579</v>
@@ -23236,19 +23482,19 @@
         <v>224</v>
       </c>
       <c r="B17" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C17" t="s">
         <v>1628</v>
       </c>
       <c r="D17" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E17" t="s">
         <v>1910</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>1911</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1912</v>
       </c>
       <c r="G17" t="s">
         <v>1579</v>
@@ -23265,19 +23511,19 @@
         <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C18" t="s">
         <v>1628</v>
       </c>
       <c r="D18" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E18" t="s">
         <v>1910</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>1911</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1912</v>
       </c>
       <c r="G18" t="s">
         <v>1579</v>
@@ -23294,22 +23540,22 @@
         <v>1005</v>
       </c>
       <c r="B19" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C19" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D19" t="s">
         <v>1913</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>1914</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1915</v>
       </c>
       <c r="F19" t="s">
         <v>1570</v>
       </c>
       <c r="G19" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H19" t="s">
         <v>1570</v>
@@ -23323,22 +23569,22 @@
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C20" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D20" t="s">
         <v>1917</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>1918</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G20" t="s">
         <v>1919</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1920</v>
       </c>
       <c r="H20" t="s">
         <v>1579</v>
@@ -23352,28 +23598,28 @@
         <v>1018</v>
       </c>
       <c r="B21" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C21" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D21" t="s">
         <v>1921</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>1922</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>1923</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>1924</v>
       </c>
-      <c r="G21" t="s">
-        <v>1925</v>
-      </c>
       <c r="H21" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I21" t="s">
         <v>1903</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -23381,28 +23627,28 @@
         <v>1024</v>
       </c>
       <c r="B22" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C22" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D22" t="s">
         <v>1926</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>1927</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>1928</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>1929</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>1930</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>1931</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1932</v>
       </c>
     </row>
   </sheetData>
@@ -23420,27 +23666,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
   </sheetData>
@@ -23489,25 +23735,25 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>1939</v>
+      </c>
+      <c r="T7" t="s">
         <v>1940</v>
-      </c>
-      <c r="T7" t="s">
-        <v>1941</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="M11" t="s">
         <v>794</v>
@@ -23518,13 +23764,13 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1942</v>
+      </c>
+      <c r="M13" t="s">
         <v>1943</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Y13" t="s">
         <v>1944</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -23532,13 +23778,13 @@
         <v>525</v>
       </c>
       <c r="E17" t="s">
+        <v>1945</v>
+      </c>
+      <c r="U17" t="s">
         <v>1946</v>
       </c>
-      <c r="U17" t="s">
+      <c r="Y17" t="s">
         <v>1947</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>1948</v>
       </c>
     </row>
   </sheetData>
@@ -23565,7 +23811,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
   </sheetData>
@@ -23595,7 +23841,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -23603,12 +23849,12 @@
         <v>951</v>
       </c>
       <c r="I4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -23631,17 +23877,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
   </sheetData>
@@ -23659,7 +23905,7 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -23712,15 +23958,15 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AK2" t="s">
         <v>1957</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="AQ6" t="s">
         <v>1071</v>
@@ -23728,15 +23974,15 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1959</v>
+      </c>
+      <c r="AU9" t="s">
         <v>1960</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
   </sheetData>
@@ -23754,32 +24000,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
   </sheetData>
@@ -23800,27 +24046,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/CAL_FireStats/2009-wildfire-activity-stats.xlsx
+++ b/Resources/CAL_FireStats/2009-wildfire-activity-stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16c6a743d20dd4b9/Documents/^M PERSONLIG/^M MAAL/DABC/Working/Projects/Project3/Fire-Analysis/Resources/CAL_FireStats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16c6a743d20dd4b9/Documents/^M PERSONLIG/^M MAAL/DABC/Working/Projects/Project3/Fire-Analysis/Resources/UniformXLSXs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="14_{A702517A-FE4A-4AE8-A693-819A916ABE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D037F32-7E17-4504-B3FA-D48663C2BD8A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A0435B-4096-4DCE-B620-D5A15064A356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="1440" windowWidth="27255" windowHeight="14760" firstSheet="24" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
